--- a/data/outputs/OR_elsevier/63.xlsx
+++ b/data/outputs/OR_elsevier/63.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS141"/>
+  <dimension ref="A1:BU141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84928152858</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>4244</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1158,6 +1174,12 @@
           <t>2-s2.0-84925257046</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>5356</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1370,6 +1392,12 @@
         <is>
           <t>2-s2.0-84922969089</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>7375</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1580,6 +1608,12 @@
           <t>2-s2.0-84935033094</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2597</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1798,6 +1832,12 @@
         <is>
           <t>2-s2.0-84939976644</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>5466</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2000,6 +2040,12 @@
           <t>2-s2.0-84922698564</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>6190</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2212,6 +2258,12 @@
         <is>
           <t>2-s2.0-84929316786</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>5179</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -2430,6 +2482,12 @@
           <t>2-s2.0-84929584523</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1785</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2631,6 +2689,12 @@
           <t>2-s2.0-84930958706</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>3056</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2840,6 +2904,12 @@
           <t>2-s2.0-84920879390</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>4873</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3055,6 +3125,12 @@
           <t>2-s2.0-84955449251</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>3009</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3272,6 +3348,12 @@
           <t>2-s2.0-84923914015</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2639</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3473,6 +3555,12 @@
           <t>2-s2.0-84921914002</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3792</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3681,6 +3769,12 @@
         <is>
           <t>2-s2.0-84939957406</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>3522</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -3899,6 +3993,12 @@
           <t>2-s2.0-84922961128</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2138</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4108,6 +4208,12 @@
           <t>2-s2.0-84922388727</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2244</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4325,6 +4431,12 @@
           <t>2-s2.0-84919952372</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4526,6 +4638,12 @@
           <t>2-s2.0-84926639346</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2385</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4743,6 +4861,12 @@
           <t>2-s2.0-84921910447</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>4203</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4952,6 +5076,12 @@
           <t>2-s2.0-84919936003</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>3651</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5157,6 +5287,12 @@
           <t>2-s2.0-84937045339</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3819</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5374,6 +5510,12 @@
           <t>2-s2.0-84941568569</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2258</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5591,6 +5733,12 @@
           <t>2-s2.0-84943563989</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1915</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5808,6 +5956,12 @@
           <t>2-s2.0-84937874358</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>3349</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6021,6 +6175,12 @@
           <t>2-s2.0-84921444464</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>3643</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6234,6 +6394,12 @@
           <t>2-s2.0-84944196198</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2333</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6439,6 +6605,12 @@
           <t>2-s2.0-84937043637</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2944</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6648,6 +6820,12 @@
           <t>2-s2.0-84924704116</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>2079</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6865,6 +7043,12 @@
           <t>2-s2.0-84941266151</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2533</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7074,6 +7258,12 @@
           <t>2-s2.0-84926507027</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2100</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7291,6 +7481,12 @@
           <t>2-s2.0-84930948801</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1826</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7500,6 +7696,12 @@
           <t>2-s2.0-84923553777</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2721</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7715,6 +7917,12 @@
           <t>2-s2.0-84962656396</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2078</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7930,6 +8138,12 @@
           <t>2-s2.0-84925650580</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2647</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8133,6 +8347,12 @@
           <t>2-s2.0-84943547739</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>3749</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8346,6 +8566,12 @@
           <t>2-s2.0-84942525410</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2121</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8547,6 +8773,12 @@
           <t>2-s2.0-84924690668</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1771</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8756,6 +8988,12 @@
           <t>2-s2.0-84913534705</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3974</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8975,6 +9213,12 @@
           <t>2-s2.0-84928964034</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2681</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9192,6 +9436,12 @@
           <t>2-s2.0-84949115285</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1420</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9411,6 +9661,12 @@
           <t>2-s2.0-84941249115</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>2527</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9612,6 +9868,12 @@
           <t>2-s2.0-84939491870</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2214</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9811,6 +10073,12 @@
           <t>2-s2.0-84925246494</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3884</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10020,6 +10288,12 @@
           <t>2-s2.0-84931266903</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>2147</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10221,6 +10495,12 @@
           <t>2-s2.0-84928891099</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2162</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10433,6 +10713,12 @@
         <is>
           <t>2-s2.0-84922988702</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>2678</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -10635,6 +10921,12 @@
           <t>2-s2.0-84916918886</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1632</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10844,6 +11136,12 @@
           <t>2-s2.0-84959235825</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1833</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11061,6 +11359,12 @@
           <t>2-s2.0-84928883120</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1515</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11262,6 +11566,12 @@
           <t>2-s2.0-84922721852</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>2539</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11471,6 +11781,12 @@
           <t>2-s2.0-84936094442</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1811</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11676,6 +11992,12 @@
           <t>2-s2.0-84928725242</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>958</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11892,6 +12214,12 @@
         <is>
           <t>2-s2.0-84939933343</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>3481</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -12110,6 +12438,12 @@
           <t>2-s2.0-84922373145</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2102</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12319,6 +12653,12 @@
           <t>2-s2.0-84916898832</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>2411</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12528,6 +12868,12 @@
           <t>2-s2.0-84943607928</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1666</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12729,6 +13075,12 @@
           <t>2-s2.0-84930673639</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2816</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12934,6 +13286,12 @@
           <t>2-s2.0-84928158349</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2580</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13143,6 +13501,12 @@
           <t>2-s2.0-84923927914</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13363,6 +13727,12 @@
         <is>
           <t>2-s2.0-84923064119</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>3120</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -13565,6 +13935,12 @@
           <t>2-s2.0-84941889753</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>2839</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13774,6 +14150,12 @@
           <t>2-s2.0-84924710402</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>2118</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13983,6 +14365,12 @@
           <t>2-s2.0-84939550327</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1145</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14184,6 +14572,12 @@
           <t>2-s2.0-84936769858</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1905</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14404,6 +14798,12 @@
         <is>
           <t>2-s2.0-84923029726</t>
         </is>
+      </c>
+      <c r="BT66" t="n">
+        <v>1364</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -14622,6 +15022,12 @@
           <t>2-s2.0-84913550680</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1892</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14831,6 +15237,12 @@
           <t>2-s2.0-84919941239</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1853</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15040,6 +15452,12 @@
           <t>2-s2.0-84944873260</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1067</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15257,6 +15675,12 @@
           <t>2-s2.0-84940044315</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>1512</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15470,6 +15894,12 @@
           <t>2-s2.0-84935855880</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1330</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15683,6 +16113,12 @@
           <t>2-s2.0-84929321553</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1585</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15888,6 +16324,12 @@
           <t>2-s2.0-84925659256</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>3419</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16101,6 +16543,12 @@
           <t>2-s2.0-84925649410</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>1090</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16316,6 +16764,12 @@
           <t>2-s2.0-85027944137</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>3222</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16520,6 +16974,12 @@
         <is>
           <t>2-s2.0-85028159063</t>
         </is>
+      </c>
+      <c r="BT76" t="n">
+        <v>2668</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -16730,6 +17190,12 @@
           <t>2-s2.0-84918548058</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1798</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16939,6 +17405,12 @@
           <t>2-s2.0-84941266210</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1414</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17152,6 +17624,12 @@
           <t>2-s2.0-84938510202</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1153</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17353,6 +17831,12 @@
           <t>2-s2.0-84930680628</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>1715</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17562,6 +18046,12 @@
           <t>2-s2.0-84930674440</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1086</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17783,6 +18273,12 @@
           <t>2-s2.0-84939957782</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1872</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17995,6 +18491,12 @@
         <is>
           <t>2-s2.0-84939998566</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>1525</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -18197,6 +18699,12 @@
           <t>2-s2.0-84924678745</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>2704</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18406,6 +18914,12 @@
           <t>2-s2.0-84925442375</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1892</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18623,6 +19137,12 @@
           <t>2-s2.0-84943633224</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1070</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18832,6 +19352,12 @@
           <t>2-s2.0-84944055235</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>2627</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19041,6 +19567,12 @@
           <t>2-s2.0-84940042386</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1594</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19242,6 +19774,12 @@
           <t>2-s2.0-84937215111</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1698</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19455,6 +19993,12 @@
           <t>2-s2.0-84937847156</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>2956</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19664,6 +20208,12 @@
           <t>2-s2.0-84929303848</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>2563</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19881,6 +20431,12 @@
           <t>2-s2.0-84929578509</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>914</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20082,6 +20638,12 @@
           <t>2-s2.0-84925381117</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1171</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20291,6 +20853,12 @@
           <t>2-s2.0-84924237591</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2136</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20496,6 +21064,12 @@
           <t>2-s2.0-84945966331</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>2085</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20713,6 +21287,12 @@
           <t>2-s2.0-84946545531</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1660</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20922,6 +21502,12 @@
           <t>2-s2.0-84944037737</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1312</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21128,6 +21714,12 @@
         <is>
           <t>2-s2.0-84936742872</t>
         </is>
+      </c>
+      <c r="BT98" t="n">
+        <v>2887</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -21332,6 +21924,12 @@
           <t>2-s2.0-84937761711</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>1601</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21533,6 +22131,12 @@
           <t>2-s2.0-84925605821</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>1179</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21734,6 +22338,12 @@
           <t>2-s2.0-84925594817</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1077</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21935,6 +22545,12 @@
           <t>2-s2.0-84925011459</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>1774</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22152,6 +22768,12 @@
           <t>2-s2.0-84921524025</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1084</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22361,6 +22983,12 @@
           <t>2-s2.0-84945563956</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1602</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22566,6 +23194,12 @@
           <t>2-s2.0-84940043218</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>1057</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22767,6 +23401,12 @@
           <t>2-s2.0-84938092459</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>1171</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22980,6 +23620,12 @@
           <t>2-s2.0-84929572756</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>1112</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23197,6 +23843,12 @@
           <t>2-s2.0-84925259288</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1339</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23406,6 +24058,12 @@
           <t>2-s2.0-84924935329</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1265</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23607,6 +24265,12 @@
           <t>2-s2.0-84937199282</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>926</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23816,6 +24480,12 @@
           <t>2-s2.0-84925448152</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>1212</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24037,6 +24707,12 @@
           <t>2-s2.0-84923870002</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>1152</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24242,6 +24918,12 @@
           <t>2-s2.0-84923934523</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>1045</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24455,6 +25137,12 @@
           <t>2-s2.0-84924952827</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1871</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24668,6 +25356,12 @@
           <t>2-s2.0-84923040755</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>2726</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24872,6 +25566,12 @@
         <is>
           <t>2-s2.0-84923025621</t>
         </is>
+      </c>
+      <c r="BT116" t="n">
+        <v>2042</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -25092,6 +25792,12 @@
           <t>2-s2.0-84913580185</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>1799</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25305,6 +26011,12 @@
           <t>2-s2.0-84913532113</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>3161</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25514,6 +26226,12 @@
           <t>2-s2.0-84946600381</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>992</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25723,6 +26441,12 @@
           <t>2-s2.0-84941762985</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>1710</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25936,6 +26660,12 @@
           <t>2-s2.0-84930943938</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>823</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26149,6 +26879,12 @@
           <t>2-s2.0-84924296760</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>1361</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26370,6 +27106,12 @@
           <t>2-s2.0-85027950390</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>1407</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26582,6 +27324,12 @@
         <is>
           <t>2-s2.0-85027929494</t>
         </is>
+      </c>
+      <c r="BT124" t="n">
+        <v>2758</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -26784,6 +27532,12 @@
           <t>2-s2.0-84919882541</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>3156</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27001,6 +27755,12 @@
           <t>2-s2.0-84941274603</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>678</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27210,6 +27970,12 @@
           <t>2-s2.0-84940027253</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>1234</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27415,6 +28181,12 @@
           <t>2-s2.0-84940864505</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>621</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27624,6 +28396,12 @@
           <t>2-s2.0-84929300722</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>873</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27836,6 +28614,12 @@
         <is>
           <t>2-s2.0-85027941972</t>
         </is>
+      </c>
+      <c r="BT130" t="n">
+        <v>1386</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -28042,6 +28826,12 @@
           <t>2-s2.0-85027926409</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>1603</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28247,6 +29037,12 @@
           <t>2-s2.0-84945275058</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>510</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28456,6 +29252,12 @@
           <t>2-s2.0-84939438917</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>1357</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28657,6 +29459,12 @@
           <t>2-s2.0-84925258791</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1455</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28858,6 +29666,12 @@
           <t>2-s2.0-84926477416</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>858</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29075,6 +29889,12 @@
           <t>2-s2.0-84928739154</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>1143</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29284,6 +30104,12 @@
           <t>2-s2.0-84924281072</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>1714</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29497,6 +30323,12 @@
           <t>2-s2.0-84944056309</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>571</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29706,6 +30538,12 @@
           <t>2-s2.0-84938512290</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>816</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29911,6 +30749,12 @@
           <t>2-s2.0-84940031513</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>1588</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30124,6 +30968,12 @@
           <t>2-s2.0-84926429367</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>741</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
